--- a/1_Measurement_and_Uncertainty/Embedded_Qs/2_a_b_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/2_a_b_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="1020" windowWidth="18885" windowHeight="13260" activeTab="3"/>
+    <workbookView xWindow="2415" yWindow="1020" windowWidth="18885" windowHeight="13260" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
   <si>
     <t>Correct</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Random</t>
   </si>
   <si>
-    <t>You are measuring an average wnid speed, and the data includes not only the mean value but periodic gusts complicate the data</t>
-  </si>
-  <si>
     <t>You are measuring the mass of bags of fruit, but neglect to subtract the mass of the hanger from the data</t>
   </si>
   <si>
@@ -244,15 +241,9 @@
     <t>The mass of the hanger would be an "extraneous variable": all of your readings would contain the same predictable error.</t>
   </si>
   <si>
-    <t>You are measuring the voltage from a force sensor, but the alternating current from your power source is included in the voltage readings</t>
-  </si>
-  <si>
     <t>The alternating current would sometimes be negative and sometimes positive, and the noise would oscillate fast enough that it would be hard to predict how it would affect any one measurement</t>
   </si>
   <si>
-    <t>You are measuring the temperature of a roast, and want the temperature at the center (the coolest part of the roast), but it is difficult to determine when the probe is exactly in the center</t>
-  </si>
-  <si>
     <t>This one is trickier: it has elements of randomness (the placement of the sensor would sometimes be too far this way, sometimes the other way, sometimes in the center).  But it would consistently give you temperatures that were too warm, and so it is more fairly characterized as systematic, since the average temperature would not really be a good representation of the true temperature.</t>
   </si>
   <si>
@@ -301,9 +292,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>Look at the two plots above.  Both show Gaussian distributions; the Gaussian equation is shown on the top plot.   The sigma and x_bar values of the top plot are shown.  What is the x_bar value of the plot on the right (approximately)?</t>
-  </si>
-  <si>
     <t>The bar above the x usually indicates that it is a mean (average) value</t>
   </si>
   <si>
@@ -311,6 +299,45 @@
   </si>
   <si>
     <t>Sigma (which we'll soon see is the standard deviation) describes the width of the curve: how long the "tails" of the Gaussian curve are.</t>
+  </si>
+  <si>
+    <t>You are measuring an average wind speed, and the data shows the mean value much of the time, but periodic gusts complicate the data</t>
+  </si>
+  <si>
+    <t>You are measuring the voltage from a force sensor, but the alternating current from your power source is overlaid on top of the voltage readings</t>
+  </si>
+  <si>
+    <t>You are measuring the temperature of a roast beast, and want the temperature at the center (the coolest part of the roast).  However, it is difficult to determine when the probe is exactly in the center, and this creates some error in your data</t>
+  </si>
+  <si>
+    <t>Look at the two plots above.  Both show Gaussian distributions; the Gaussian equation is shown on the top plot.   The sigma and x_bar values of the top plot are shown.  What is the approximate value of x_bar on the bottom plot?</t>
+  </si>
+  <si>
+    <t>Look at the equation for standard deviation.    What is a good "translation" for this equation?</t>
+  </si>
+  <si>
+    <t>The average distance between the data points in a data set and the average value</t>
+  </si>
+  <si>
+    <t>The average value of data points in a data set</t>
+  </si>
+  <si>
+    <t>The sum of the values of the data points in a data set</t>
+  </si>
+  <si>
+    <t>The square root of the average difference between the points in a data set and their average value</t>
+  </si>
+  <si>
+    <t>Close: but it's not the square root, because we squared this difference inside the radical (before we took the square root).   This is important: it means that the units of sigma are the same units as x.</t>
+  </si>
+  <si>
+    <t>Sigma tells us how far most of our data points are (on average) from the mean value.</t>
+  </si>
+  <si>
+    <t>Let's say I am measuring the mass of brake pads that come off an assembly line.  I find they have an average mass of 0.145 and a sigma value of 0.013.  If I want to be 95% sure that the next one off the line will fall within my uncertainty range, what should my uncertainty be?</t>
+  </si>
+  <si>
+    <t>95% is the confidence level that we assocate with 2*sigma.  So here that would be 0.026 kg.  In this case, the z-score would be 2.0: 2 standard deviations from the mean.</t>
   </si>
 </sst>
 </file>
@@ -695,7 +722,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +748,7 @@
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -730,12 +757,12 @@
         <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
@@ -744,31 +771,31 @@
         <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1326,7 +1353,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -1338,67 +1365,67 @@
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
@@ -1408,7 +1435,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>19</v>
@@ -1418,7 +1445,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -1441,7 +1468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1453,7 +1482,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>24</v>
@@ -1475,7 +1504,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1511,7 +1540,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1546,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1564,7 +1593,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,8 +1604,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1584,33 +1615,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1619,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,8 +1676,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1643,32 +1688,51 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>6.4999999999999997E-3</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>1.235E-2</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/2_a_b_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/2_a_b_Embedded_Qs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8578F6A-D811-45A3-8DD4-A6D1384C60B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="1020" windowWidth="18885" windowHeight="13260" activeTab="5"/>
+    <workbookView xWindow="675" yWindow="945" windowWidth="16470" windowHeight="13260" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -34,23 +35,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
   <si>
     <t>Correct</t>
   </si>
@@ -338,12 +328,63 @@
   </si>
   <si>
     <t>95% is the confidence level that we assocate with 2*sigma.  So here that would be 0.026 kg.  In this case, the z-score would be 2.0: 2 standard deviations from the mean.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You take data on the average voltage of a set of batteries, and find an average value of V=9.15 volts, with a standard deviation of 0.36.  You take the reading from one more battery, and find a voltage of 9.33.  What is the z-score of this new reading?  </t>
+  </si>
+  <si>
+    <t>The new reading is one-half of a standard deviation away from the mean ((9.33-9.15)/0.36).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You take data on the average voltage of a set of batteries, and find an average value of V=9.15 volts, with a standard deviation of 0.36.  What is the probability that the next battery you check will have a value within 0.5 volts of 9.15?  Use a z-score calculator to find the answer (see the link above) </t>
+  </si>
+  <si>
+    <t>If you are still confused, enter the z-score in the second box on the page (Z-score and Probability Converter) and look at those images.</t>
+  </si>
+  <si>
+    <t>Look at the probability state,emts.  Notice that these will not directly answer the question: pay attention to what exactly these are the probabilities for (and look at the images to help you understand that).</t>
+  </si>
+  <si>
+    <t>Find the z-score using the "Z-score calculator" box.  About what value should it be?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the "Probability Converter" box.  </t>
+  </si>
+  <si>
+    <t>Enter the 75% probability for the correct box and press "calculate".</t>
+  </si>
+  <si>
+    <t>Use the z-score to with the standard deviation to find the uncertainty.</t>
+  </si>
+  <si>
+    <t>You take data on the average voltage of a set of batteries, and find an average value of V=9.15 volts, with a standard deviation of 0.36.   What would be the uncertainty with  a confidence level of 75%? (answer in volts)</t>
+  </si>
+  <si>
+    <t>You take data on the average voltage of a set of 16 batteries, and find an average value of V=9.15 volts, with a standard deviation of 0.36.   What is the uncertainty in the mean value at a 95% confidence level?  Use the standard deviation of the mean to find this.</t>
+  </si>
+  <si>
+    <t>The standard deviation of the mean is the Sdev divided by the square root of 9.  So SMD = 0.36/4 = 0.9.   A 95% confidence level requires a z-score of 2.0, and uncertainty =z*SDM = 0.18.</t>
+  </si>
+  <si>
+    <t>You take data on the average voltage of a set of 16 batteries, and find an average value of V=9.15 volts, with a standard deviation of 0.36.   You then find 2 new data points: A) a single measurement of 1 new battery B) the mean value of   16 new batteries.  Which would you expect to fall closer (on average) to 9.15?</t>
+  </si>
+  <si>
+    <t>You would expect them to be equally distant (on average) from 9.15</t>
+  </si>
+  <si>
+    <t>The measurement of the single battery would be closer</t>
+  </si>
+  <si>
+    <t>The mean value of the measurements of 16 new batteries would be closer</t>
+  </si>
+  <si>
+    <t>This is why the standard deviation of the mean is smaller than the Sdev: taking more data points will tend to wash out random variation and move the average value closer to the true mean value.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -718,7 +759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -816,11 +857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,8 +872,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -840,33 +883,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -874,11 +933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,8 +948,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -899,32 +960,60 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>2.2499999999999999E-2</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.09</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>0.18</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>0.36</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -932,7 +1021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1008,7 +1097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1095,7 +1184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1157,7 +1246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1259,7 +1348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1335,7 +1424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1465,11 +1554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,7 +1612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1589,7 +1678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1661,10 +1750,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1740,12 +1829,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1755,42 +1842,93 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>0.18</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.5</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>0.36</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>1.0189999999999999</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1798,12 +1936,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1813,42 +1949,46 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" s="2">
+        <v>83.5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1856,12 +1996,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1871,8 +2009,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1881,32 +2021,34 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" s="2">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.05</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/2_a_b_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/2_a_b_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8578F6A-D811-45A3-8DD4-A6D1384C60B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E68A194-3802-474D-A67A-51E91E4241AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="945" windowWidth="16470" windowHeight="13260" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="945" windowWidth="16470" windowHeight="13260" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -336,9 +336,6 @@
     <t>The new reading is one-half of a standard deviation away from the mean ((9.33-9.15)/0.36).</t>
   </si>
   <si>
-    <t xml:space="preserve">You take data on the average voltage of a set of batteries, and find an average value of V=9.15 volts, with a standard deviation of 0.36.  What is the probability that the next battery you check will have a value within 0.5 volts of 9.15?  Use a z-score calculator to find the answer (see the link above) </t>
-  </si>
-  <si>
     <t>If you are still confused, enter the z-score in the second box on the page (Z-score and Probability Converter) and look at those images.</t>
   </si>
   <si>
@@ -379,6 +376,9 @@
   </si>
   <si>
     <t>This is why the standard deviation of the mean is smaller than the Sdev: taking more data points will tend to wash out random variation and move the average value closer to the true mean value.</t>
+  </si>
+  <si>
+    <t>You take data on the average voltage of a set of batteries, and find an average value of V=9.15 volts, with a standard deviation of 0.36.  What is the probability that the next battery you check will have a value within 0.5 volts of 9.15?  Use a z-score calculator to find the answer (see the link above).  Enter your answer as a whole number percentage (for example, "12" for 12.3%)</t>
   </si>
 </sst>
 </file>
@@ -860,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -874,7 +874,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -894,18 +894,18 @@
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +950,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -968,25 +968,25 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.09</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1682,7 +1682,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,7 +1939,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1949,9 +1951,9 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>24</v>
@@ -1973,21 +1975,21 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +2013,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2033,21 +2035,21 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/2_a_b_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/2_a_b_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E68A194-3802-474D-A67A-51E91E4241AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDE249B-54AC-4AB0-8C63-2A5EEB9E1C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="945" windowWidth="16470" windowHeight="13260" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="945" windowWidth="16470" windowHeight="13260" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
     <t>This is why the standard deviation of the mean is smaller than the Sdev: taking more data points will tend to wash out random variation and move the average value closer to the true mean value.</t>
   </si>
   <si>
-    <t>You take data on the average voltage of a set of batteries, and find an average value of V=9.15 volts, with a standard deviation of 0.36.  What is the probability that the next battery you check will have a value within 0.5 volts of 9.15?  Use a z-score calculator to find the answer (see the link above).  Enter your answer as a whole number percentage (for example, "12" for 12.3%)</t>
+    <t>You take data on the average voltage of a set of batteries, and find an average value of V=9.15 volts, with a standard deviation of 0.36.  What is the probability that the next battery you check will have a value within 0.5 volts of 9.15?  Use a z-score calculator to find the answer (see the link directly above this question).  Enter your answer as a whole number percentage (for example, "12" for 12.3%)</t>
   </si>
 </sst>
 </file>
@@ -936,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1939,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,7 +1951,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>112</v>
       </c>
